--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +777,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +824,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +870,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -938,10 +950,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -985,28 +997,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1031,28 +1043,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1384,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1431,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1477,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1603,10 +1615,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1650,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="2">
+      <c r="C53" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1696,28 +1708,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1776,10 +1788,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1823,28 +1835,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1869,28 +1881,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1949,10 +1961,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1996,28 +2008,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2042,28 +2054,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2122,10 +2134,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2169,28 +2181,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2215,28 +2227,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2295,10 +2307,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2342,28 +2354,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2388,28 +2400,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2468,10 +2480,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2515,28 +2527,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2561,28 +2573,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2641,10 +2653,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2688,28 +2700,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2734,28 +2746,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2814,10 +2826,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2861,28 +2873,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2907,28 +2919,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2987,10 +2999,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3034,28 +3046,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3080,28 +3092,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3160,10 +3172,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3207,28 +3219,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3253,28 +3265,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3333,10 +3345,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3380,28 +3392,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3426,28 +3438,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3506,10 +3518,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3553,28 +3565,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3599,28 +3611,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3708,10 +3720,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3755,28 +3767,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3801,28 +3813,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3881,10 +3893,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3928,28 +3940,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3974,28 +3986,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4054,10 +4066,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4101,28 +4113,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4147,28 +4159,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4227,10 +4239,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4274,28 +4286,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4320,28 +4332,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4400,10 +4412,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4447,28 +4459,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4493,28 +4505,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4573,10 +4585,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4620,28 +4632,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4666,28 +4678,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4746,10 +4758,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4793,28 +4805,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4839,28 +4851,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4977,10 +4989,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5024,28 +5036,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5070,28 +5082,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5150,10 +5162,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5197,28 +5209,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5243,28 +5255,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5352,10 +5364,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5399,28 +5411,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5445,28 +5457,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5525,10 +5537,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5572,28 +5584,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5618,28 +5630,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5698,10 +5710,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5745,28 +5757,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5791,28 +5803,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5871,10 +5883,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5918,28 +5930,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5964,28 +5976,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6044,10 +6056,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6091,28 +6103,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6137,28 +6149,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6217,10 +6229,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6264,28 +6276,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6310,28 +6322,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6390,10 +6402,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6437,28 +6449,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6483,28 +6495,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6650,10 +6662,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6697,28 +6709,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6743,28 +6755,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6823,10 +6835,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6870,28 +6882,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6916,28 +6928,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6996,10 +7008,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7043,28 +7055,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7089,28 +7101,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7169,10 +7181,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7216,28 +7228,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7262,28 +7274,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7371,10 +7383,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7418,28 +7430,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7464,28 +7476,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7573,10 +7585,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7620,28 +7632,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7666,28 +7678,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7746,10 +7758,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7793,28 +7805,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7839,28 +7851,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7919,10 +7931,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7966,28 +7978,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8012,28 +8024,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8092,10 +8104,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8139,28 +8151,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8185,28 +8197,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8265,10 +8277,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8312,28 +8324,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8358,28 +8370,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8438,10 +8450,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8485,28 +8497,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8531,28 +8543,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8611,10 +8623,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8658,28 +8670,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8704,28 +8716,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8784,10 +8796,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8831,28 +8843,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8877,28 +8889,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8957,10 +8969,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9004,28 +9016,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9050,28 +9062,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9130,10 +9142,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="2" t="s">
+      <c r="J312" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9177,28 +9189,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="2">
+      <c r="A314" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="2">
+      <c r="C314" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9223,28 +9235,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="2">
+      <c r="C316" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="2">
+      <c r="D316" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="2">
+      <c r="I316" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9303,10 +9315,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9350,28 +9362,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9396,28 +9408,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9505,10 +9517,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9552,28 +9564,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9598,28 +9610,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9678,10 +9690,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9725,28 +9737,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="2">
+      <c r="A333" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="2">
+      <c r="C333" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9771,28 +9783,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="2">
+      <c r="C335" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="2">
+      <c r="D335" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="2">
+      <c r="I335" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9851,10 +9863,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="2" t="s">
+      <c r="J337" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9898,28 +9910,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="2">
+      <c r="A339" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="2">
+      <c r="C339" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9944,28 +9956,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="2">
+      <c r="C341" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="2">
+      <c r="D341" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="2">
+      <c r="I341" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10024,10 +10036,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="2" t="s">
+      <c r="J343" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10071,28 +10083,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="2">
+      <c r="A345" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="2">
+      <c r="C345" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10117,28 +10129,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="2">
+      <c r="C347" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="2">
+      <c r="D347" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="2">
+      <c r="I347" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10197,10 +10209,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="2" t="s">
+      <c r="J349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10244,28 +10256,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
+      <c r="A351" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="2">
+      <c r="C351" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10290,28 +10302,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="2">
+      <c r="C353" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="2">
+      <c r="D353" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="2">
+      <c r="I353" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10399,10 +10411,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="2" t="s">
+      <c r="J356" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10446,28 +10458,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="2">
+      <c r="A358" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="2">
+      <c r="C358" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10492,28 +10504,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="2">
+      <c r="C360" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="2">
+      <c r="D360" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="2">
+      <c r="I360" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10601,10 +10613,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="2" t="s">
+      <c r="J363" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10648,28 +10660,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="2">
+      <c r="A365" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="2">
+      <c r="C365" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10694,28 +10706,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="2">
+      <c r="C367" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="2">
+      <c r="D367" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="2">
+      <c r="I367" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10774,10 +10786,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="2" t="s">
+      <c r="J369" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10821,28 +10833,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="2">
+      <c r="A371" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="2">
+      <c r="C371" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10867,28 +10879,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="2">
+      <c r="C373" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="2">
+      <c r="D373" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="2">
+      <c r="I373" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10947,10 +10959,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="2" t="s">
+      <c r="J375" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -10994,28 +11006,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="2">
+      <c r="A377" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="2">
+      <c r="C377" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11040,28 +11052,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="2">
+      <c r="C379" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="2">
+      <c r="D379" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="2">
+      <c r="I379" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11120,10 +11132,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="2" t="s">
+      <c r="J381" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11167,28 +11179,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="2">
+      <c r="A383" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="2">
+      <c r="C383" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11213,28 +11225,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="2">
+      <c r="B385" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="2">
+      <c r="C385" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="2">
+      <c r="D385" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="2">
+      <c r="E385" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="2">
+      <c r="F385" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="2">
+      <c r="G385" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="2">
+      <c r="H385" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="2">
+      <c r="I385" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11293,10 +11305,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="2" t="s">
+      <c r="J387" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11340,28 +11352,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="2">
+      <c r="A389" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="2">
+      <c r="B389" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="2">
+      <c r="C389" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="2">
+      <c r="E389" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="2">
+      <c r="F389" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="2">
+      <c r="G389" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="2">
+      <c r="H389" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11386,28 +11398,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="2">
+      <c r="B391" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="2">
+      <c r="C391" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="2">
+      <c r="D391" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="2">
+      <c r="E391" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="2">
+      <c r="F391" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="2">
+      <c r="G391" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="2">
+      <c r="H391" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="2">
+      <c r="I391" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11524,10 +11536,10 @@
       <c r="I395">
         <f>((C395-C394)^2+(D395- D394)^2)^.5</f>
       </c>
-      <c r="J395" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K395" s="2" t="s">
+      <c r="J395" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L395" t="n">
@@ -11571,28 +11583,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s" s="2">
+      <c r="A397" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B397" t="s" s="2">
+      <c r="B397" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C397" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s" s="2">
+      <c r="C397" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E397" t="s" s="2">
+      <c r="E397" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F397" t="s" s="2">
+      <c r="F397" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G397" t="s" s="2">
+      <c r="G397" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H397" t="s" s="2">
+      <c r="H397" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11617,28 +11629,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="B399" t="s" s="2">
+      <c r="B399" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C399" t="s" s="2">
+      <c r="C399" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D399" t="s" s="2">
+      <c r="D399" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E399" t="s" s="2">
+      <c r="E399" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F399" t="s" s="2">
+      <c r="F399" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G399" t="s" s="2">
+      <c r="G399" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H399" t="s" s="2">
+      <c r="H399" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I399" t="s" s="2">
+      <c r="I399" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11726,10 +11738,10 @@
       <c r="I402">
         <f>((C402-C401)^2+(D402- D401)^2)^.5</f>
       </c>
-      <c r="J402" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K402" s="2" t="s">
+      <c r="J402" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K402" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L402" t="n">
@@ -11773,28 +11785,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="s" s="2">
+      <c r="A404" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C404" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D404" t="s" s="2">
+      <c r="C404" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D404" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11819,28 +11831,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="B406" t="s" s="2">
+      <c r="B406" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C406" t="s" s="2">
+      <c r="C406" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D406" t="s" s="2">
+      <c r="D406" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E406" t="s" s="2">
+      <c r="E406" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F406" t="s" s="2">
+      <c r="F406" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G406" t="s" s="2">
+      <c r="G406" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H406" t="s" s="2">
+      <c r="H406" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I406" t="s" s="2">
+      <c r="I406" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11957,10 +11969,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="2" t="s">
+      <c r="J410" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12004,28 +12016,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="2">
+      <c r="A412" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="2">
+      <c r="B412" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="2">
+      <c r="C412" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="2">
+      <c r="E412" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="2">
+      <c r="F412" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="2">
+      <c r="G412" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="2">
+      <c r="H412" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12050,28 +12062,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="2">
+      <c r="C414" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="2">
+      <c r="D414" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="2">
+      <c r="I414" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12159,10 +12171,10 @@
       <c r="I417">
         <f>((C417-C416)^2+(D417- D416)^2)^.5</f>
       </c>
-      <c r="J417" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K417" s="2" t="s">
+      <c r="J417" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K417" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L417" t="n">
@@ -12206,28 +12218,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="s" s="2">
+      <c r="A419" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B419" t="s" s="2">
+      <c r="B419" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C419" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D419" t="s" s="2">
+      <c r="C419" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D419" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E419" t="s" s="2">
+      <c r="E419" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F419" t="s" s="2">
+      <c r="F419" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G419" t="s" s="2">
+      <c r="G419" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H419" t="s" s="2">
+      <c r="H419" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12252,28 +12264,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="B421" t="s" s="2">
+      <c r="B421" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C421" t="s" s="2">
+      <c r="C421" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D421" t="s" s="2">
+      <c r="D421" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E421" t="s" s="2">
+      <c r="E421" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F421" t="s" s="2">
+      <c r="F421" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G421" t="s" s="2">
+      <c r="G421" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H421" t="s" s="2">
+      <c r="H421" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I421" t="s" s="2">
+      <c r="I421" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12332,10 +12344,10 @@
       <c r="I423">
         <f>((C423-C422)^2+(D423- D422)^2)^.5</f>
       </c>
-      <c r="J423" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K423" s="2" t="s">
+      <c r="J423" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K423" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L423" t="n">
@@ -12379,28 +12391,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="s" s="2">
+      <c r="A425" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B425" t="s" s="2">
+      <c r="B425" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C425" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D425" t="s" s="2">
+      <c r="C425" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D425" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E425" t="s" s="2">
+      <c r="E425" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F425" t="s" s="2">
+      <c r="F425" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G425" t="s" s="2">
+      <c r="G425" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H425" t="s" s="2">
+      <c r="H425" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12425,28 +12437,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="B427" t="s" s="2">
+      <c r="B427" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C427" t="s" s="2">
+      <c r="C427" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D427" t="s" s="2">
+      <c r="D427" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E427" t="s" s="2">
+      <c r="E427" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F427" t="s" s="2">
+      <c r="F427" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G427" t="s" s="2">
+      <c r="G427" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H427" t="s" s="2">
+      <c r="H427" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I427" t="s" s="2">
+      <c r="I427" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12505,10 +12517,10 @@
       <c r="I429">
         <f>((C429-C428)^2+(D429- D428)^2)^.5</f>
       </c>
-      <c r="J429" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K429" s="2" t="s">
+      <c r="J429" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K429" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L429" t="n">
@@ -12552,28 +12564,28 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="s" s="2">
+      <c r="A431" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B431" t="s" s="2">
+      <c r="B431" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C431" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D431" t="s" s="2">
+      <c r="C431" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D431" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E431" t="s" s="2">
+      <c r="E431" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F431" t="s" s="2">
+      <c r="F431" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G431" t="s" s="2">
+      <c r="G431" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H431" t="s" s="2">
+      <c r="H431" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12598,28 +12610,28 @@
       </c>
     </row>
     <row r="433">
-      <c r="B433" t="s" s="2">
+      <c r="B433" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C433" t="s" s="2">
+      <c r="C433" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D433" t="s" s="2">
+      <c r="D433" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E433" t="s" s="2">
+      <c r="E433" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F433" t="s" s="2">
+      <c r="F433" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G433" t="s" s="2">
+      <c r="G433" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H433" t="s" s="2">
+      <c r="H433" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I433" t="s" s="2">
+      <c r="I433" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12678,10 +12690,10 @@
       <c r="I435">
         <f>((C435-C434)^2+(D435- D434)^2)^.5</f>
       </c>
-      <c r="J435" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K435" s="2" t="s">
+      <c r="J435" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K435" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L435" t="n">
@@ -12725,28 +12737,28 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="s" s="2">
+      <c r="A437" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B437" t="s" s="2">
+      <c r="B437" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C437" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D437" t="s" s="2">
+      <c r="C437" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D437" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E437" t="s" s="2">
+      <c r="E437" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F437" t="s" s="2">
+      <c r="F437" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G437" t="s" s="2">
+      <c r="G437" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H437" t="s" s="2">
+      <c r="H437" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12771,28 +12783,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="B439" t="s" s="2">
+      <c r="B439" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C439" t="s" s="2">
+      <c r="C439" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D439" t="s" s="2">
+      <c r="D439" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E439" t="s" s="2">
+      <c r="E439" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F439" t="s" s="2">
+      <c r="F439" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G439" t="s" s="2">
+      <c r="G439" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H439" t="s" s="2">
+      <c r="H439" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I439" t="s" s="2">
+      <c r="I439" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12851,10 +12863,10 @@
       <c r="I441">
         <f>((C441-C440)^2+(D441- D440)^2)^.5</f>
       </c>
-      <c r="J441" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K441" s="2" t="s">
+      <c r="J441" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K441" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L441" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14880" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -373,10 +421,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -420,28 +468,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="4">
+      <c r="A10" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="4">
+      <c r="C10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="E10" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="4">
+      <c r="F10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="4">
+      <c r="G10" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="4">
+      <c r="H10" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -466,28 +514,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="4">
+      <c r="I12" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -604,10 +652,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -651,28 +699,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="4">
+      <c r="C18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -697,28 +745,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -777,10 +825,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -824,28 +872,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="4">
+      <c r="A24" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="4">
+      <c r="C24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -870,28 +918,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="4">
+      <c r="D26" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="4">
+      <c r="I26" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -950,10 +998,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="4" t="s">
+      <c r="J28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -997,28 +1045,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="4">
+      <c r="A30" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="4">
+      <c r="C30" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1043,28 +1091,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="4">
+      <c r="C32" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="4">
+      <c r="D32" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="4">
+      <c r="I32" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1384,10 +1432,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="4" t="s">
+      <c r="J43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1431,28 +1479,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="4">
+      <c r="A45" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="4">
+      <c r="C45" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1477,28 +1525,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="4">
+      <c r="C47" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="4">
+      <c r="D47" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="4">
+      <c r="I47" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1615,10 +1663,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="4" t="s">
+      <c r="J51" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1662,28 +1710,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="4">
+      <c r="A53" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="4">
+      <c r="B53" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="4">
+      <c r="C53" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="4">
+      <c r="E53" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="4">
+      <c r="F53" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="4">
+      <c r="G53" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="4">
+      <c r="H53" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1708,28 +1756,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="4">
+      <c r="C55" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="4">
+      <c r="D55" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="4">
+      <c r="I55" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1788,10 +1836,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="J57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1835,28 +1883,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="4">
+      <c r="A59" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="4">
+      <c r="B59" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="4">
+      <c r="C59" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="4">
+      <c r="G59" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="4">
+      <c r="H59" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1881,28 +1929,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="4">
+      <c r="I61" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1961,10 +2009,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="4" t="s">
+      <c r="J63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2008,28 +2056,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="4">
+      <c r="A65" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="4">
+      <c r="C65" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="4">
+      <c r="G65" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="4">
+      <c r="H65" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2054,28 +2102,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C67" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="4">
+      <c r="D67" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="4">
+      <c r="G67" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="4">
+      <c r="H67" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="4">
+      <c r="I67" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2134,10 +2182,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="4" t="s">
+      <c r="J69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2181,28 +2229,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="4">
+      <c r="A71" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="4">
+      <c r="C71" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2227,28 +2275,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="4">
+      <c r="I73" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2307,10 +2355,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="4" t="s">
+      <c r="J75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2354,28 +2402,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="4">
+      <c r="A77" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="4">
+      <c r="C77" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2400,28 +2448,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="4">
+      <c r="D79" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="4">
+      <c r="I79" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2480,10 +2528,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="J81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2527,28 +2575,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="4">
+      <c r="A83" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="4">
+      <c r="C83" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2573,28 +2621,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="4">
+      <c r="G85" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="4">
+      <c r="H85" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="4">
+      <c r="I85" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2653,10 +2701,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="4" t="s">
+      <c r="J87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2700,28 +2748,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="4">
+      <c r="C89" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2746,28 +2794,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2826,10 +2874,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="4" t="s">
+      <c r="J93" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2873,28 +2921,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="4">
+      <c r="A95" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="4">
+      <c r="C95" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2919,28 +2967,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="4">
+      <c r="D97" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="4">
+      <c r="I97" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2999,10 +3047,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="4" t="s">
+      <c r="J99" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3046,28 +3094,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="4">
+      <c r="A101" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="4">
+      <c r="C101" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="4">
+      <c r="G101" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="4">
+      <c r="H101" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3092,28 +3140,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="4">
+      <c r="C103" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="4">
+      <c r="D103" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="4">
+      <c r="I103" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3172,10 +3220,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="4" t="s">
+      <c r="J105" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3219,28 +3267,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="4">
+      <c r="A107" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="4">
+      <c r="C107" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3265,28 +3313,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="4">
+      <c r="C109" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="4">
+      <c r="D109" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="4">
+      <c r="I109" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3345,10 +3393,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="4" t="s">
+      <c r="J111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3392,28 +3440,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="4">
+      <c r="A113" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="4">
+      <c r="C113" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3438,28 +3486,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="4">
+      <c r="D115" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="4">
+      <c r="I115" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3518,10 +3566,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="4" t="s">
+      <c r="J117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3565,28 +3613,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="4">
+      <c r="A119" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="4">
+      <c r="C119" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3611,28 +3659,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="D121" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="4">
+      <c r="I121" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3720,10 +3768,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="4" t="s">
+      <c r="J124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3767,28 +3815,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="4">
+      <c r="A126" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="4">
+      <c r="C126" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3813,28 +3861,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="4">
+      <c r="I128" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3893,10 +3941,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="4" t="s">
+      <c r="J130" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3940,28 +3988,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="4">
+      <c r="A132" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="4">
+      <c r="C132" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3986,28 +4034,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="4">
+      <c r="C134" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="4">
+      <c r="D134" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="4">
+      <c r="I134" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4066,10 +4114,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="4" t="s">
+      <c r="J136" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4113,28 +4161,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="4">
+      <c r="A138" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="4">
+      <c r="C138" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4159,28 +4207,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="4">
+      <c r="C140" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="4">
+      <c r="D140" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="4">
+      <c r="I140" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4239,10 +4287,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="4" t="s">
+      <c r="J142" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4286,28 +4334,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="4">
+      <c r="A144" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="4">
+      <c r="C144" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4332,28 +4380,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="4">
+      <c r="C146" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="4">
+      <c r="D146" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="4">
+      <c r="I146" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4412,10 +4460,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="4" t="s">
+      <c r="J148" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4459,28 +4507,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="4">
+      <c r="A150" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="4">
+      <c r="C150" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4505,28 +4553,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="4">
+      <c r="C152" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="4">
+      <c r="D152" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="4">
+      <c r="I152" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4585,10 +4633,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="4" t="s">
+      <c r="J154" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4632,28 +4680,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="4">
+      <c r="A156" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="4">
+      <c r="C156" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4678,28 +4726,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="4">
+      <c r="I158" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4758,10 +4806,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="4" t="s">
+      <c r="J160" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4805,28 +4853,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="4">
+      <c r="C162" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4851,28 +4899,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="4">
+      <c r="I164" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4989,10 +5037,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5036,28 +5084,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5082,28 +5130,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5162,10 +5210,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="J174" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5209,28 +5257,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="A176" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="4">
+      <c r="C176" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5255,28 +5303,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="4">
+      <c r="I178" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5364,10 +5412,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="4" t="s">
+      <c r="J181" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5411,28 +5459,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="4">
+      <c r="A183" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="4">
+      <c r="C183" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5457,28 +5505,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="4">
+      <c r="C185" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="4">
+      <c r="D185" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="4">
+      <c r="E185" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="4">
+      <c r="F185" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="4">
+      <c r="G185" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="4">
+      <c r="H185" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="4">
+      <c r="I185" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5537,10 +5585,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="4" t="s">
+      <c r="J187" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5584,28 +5632,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="4">
+      <c r="A189" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="4">
+      <c r="B189" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="4">
+      <c r="C189" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="4">
+      <c r="G189" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="4">
+      <c r="H189" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5630,28 +5678,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="4">
+      <c r="C191" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="4">
+      <c r="D191" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="4">
+      <c r="E191" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="4">
+      <c r="F191" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="4">
+      <c r="G191" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="4">
+      <c r="H191" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="4">
+      <c r="I191" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5710,10 +5758,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="4" t="s">
+      <c r="J193" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5757,28 +5805,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="4">
+      <c r="A195" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="4">
+      <c r="C195" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="4">
+      <c r="E195" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="4">
+      <c r="F195" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="4">
+      <c r="G195" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="4">
+      <c r="H195" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5803,28 +5851,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="4">
+      <c r="C197" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="4">
+      <c r="D197" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="4">
+      <c r="I197" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5883,10 +5931,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="4" t="s">
+      <c r="J199" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5930,28 +5978,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="4">
+      <c r="A201" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="4">
+      <c r="C201" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="4">
+      <c r="E201" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="4">
+      <c r="F201" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="4">
+      <c r="G201" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="4">
+      <c r="H201" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5976,28 +6024,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="4">
+      <c r="B203" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="4">
+      <c r="C203" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="4">
+      <c r="D203" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="4">
+      <c r="E203" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="4">
+      <c r="F203" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="4">
+      <c r="G203" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="4">
+      <c r="H203" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="4">
+      <c r="I203" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6056,10 +6104,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="4" t="s">
+      <c r="J205" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6103,28 +6151,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="4">
+      <c r="A207" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="4">
+      <c r="C207" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6149,28 +6197,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="4">
+      <c r="C209" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="4">
+      <c r="D209" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="4">
+      <c r="G209" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="4">
+      <c r="H209" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="4">
+      <c r="I209" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6229,10 +6277,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="4" t="s">
+      <c r="J211" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6276,28 +6324,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="4">
+      <c r="A213" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="4">
+      <c r="C213" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="4">
+      <c r="E213" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="4">
+      <c r="F213" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="4">
+      <c r="G213" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="4">
+      <c r="H213" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6322,28 +6370,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="4">
+      <c r="C215" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="4">
+      <c r="D215" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="4">
+      <c r="I215" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6402,10 +6450,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="4" t="s">
+      <c r="J217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6449,28 +6497,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="4">
+      <c r="C219" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6495,28 +6543,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="4">
+      <c r="I221" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6662,10 +6710,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="4" t="s">
+      <c r="J226" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6709,28 +6757,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="4">
+      <c r="A228" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="4">
+      <c r="B228" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="4">
+      <c r="C228" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="4">
+      <c r="G228" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="4">
+      <c r="H228" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6755,28 +6803,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="4">
+      <c r="B230" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="4">
+      <c r="C230" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="4">
+      <c r="D230" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="4">
+      <c r="E230" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="4">
+      <c r="F230" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="4">
+      <c r="G230" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="4">
+      <c r="H230" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="4">
+      <c r="I230" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6835,10 +6883,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="4" t="s">
+      <c r="J232" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6882,28 +6930,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="4">
+      <c r="A234" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="4">
+      <c r="C234" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="4">
+      <c r="G234" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="4">
+      <c r="H234" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6928,28 +6976,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="4">
+      <c r="C236" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="4">
+      <c r="D236" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="4">
+      <c r="E236" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="4">
+      <c r="F236" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="4">
+      <c r="G236" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="4">
+      <c r="H236" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="4">
+      <c r="I236" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7008,10 +7056,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="4" t="s">
+      <c r="J238" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7055,28 +7103,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="4">
+      <c r="A240" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="4">
+      <c r="C240" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7101,28 +7149,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="4">
+      <c r="C242" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="4">
+      <c r="D242" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="4">
+      <c r="I242" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7181,10 +7229,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="4" t="s">
+      <c r="J244" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7228,28 +7276,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="4">
+      <c r="A246" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="4">
+      <c r="C246" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7274,28 +7322,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="4">
+      <c r="B248" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="4">
+      <c r="C248" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="4">
+      <c r="D248" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="4">
+      <c r="G248" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="4">
+      <c r="H248" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="4">
+      <c r="I248" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7383,10 +7431,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="4" t="s">
+      <c r="J251" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7430,28 +7478,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="4">
+      <c r="A253" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="4">
+      <c r="B253" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="4">
+      <c r="C253" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="4">
+      <c r="E253" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="4">
+      <c r="F253" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="4">
+      <c r="G253" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="4">
+      <c r="H253" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7476,28 +7524,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="4">
+      <c r="B255" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="4">
+      <c r="C255" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="4">
+      <c r="D255" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="4">
+      <c r="E255" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="4">
+      <c r="F255" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="4">
+      <c r="G255" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="4">
+      <c r="H255" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="4">
+      <c r="I255" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7585,10 +7633,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="4" t="s">
+      <c r="J258" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7632,28 +7680,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="4">
+      <c r="A260" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="4">
+      <c r="B260" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="4">
+      <c r="C260" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="4">
+      <c r="E260" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="4">
+      <c r="F260" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="4">
+      <c r="G260" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="4">
+      <c r="H260" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7678,28 +7726,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="4">
+      <c r="C262" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="4">
+      <c r="D262" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="4">
+      <c r="I262" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7758,10 +7806,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="4" t="s">
+      <c r="J264" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7805,28 +7853,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="4">
+      <c r="A266" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="4">
+      <c r="B266" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="4">
+      <c r="C266" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="4">
+      <c r="E266" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="4">
+      <c r="F266" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="4">
+      <c r="G266" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="4">
+      <c r="H266" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7851,28 +7899,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="4">
+      <c r="B268" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="4">
+      <c r="C268" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="4">
+      <c r="D268" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="4">
+      <c r="E268" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="4">
+      <c r="F268" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="4">
+      <c r="G268" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="4">
+      <c r="H268" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="4">
+      <c r="I268" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7931,10 +7979,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="4" t="s">
+      <c r="J270" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7978,28 +8026,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="4">
+      <c r="A272" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="4">
+      <c r="B272" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="4">
+      <c r="C272" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="4">
+      <c r="E272" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="4">
+      <c r="F272" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="4">
+      <c r="G272" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="4">
+      <c r="H272" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8024,28 +8072,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="4">
+      <c r="C274" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="4">
+      <c r="D274" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="4">
+      <c r="I274" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8104,10 +8152,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="4" t="s">
+      <c r="J276" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8151,28 +8199,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="4">
+      <c r="A278" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="4">
+      <c r="B278" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="4">
+      <c r="C278" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="4">
+      <c r="E278" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="4">
+      <c r="F278" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="4">
+      <c r="G278" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="4">
+      <c r="H278" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8197,28 +8245,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="4">
+      <c r="B280" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="4">
+      <c r="C280" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="4">
+      <c r="D280" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="4">
+      <c r="E280" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="4">
+      <c r="F280" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="4">
+      <c r="G280" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="4">
+      <c r="H280" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="4">
+      <c r="I280" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8277,10 +8325,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="4" t="s">
+      <c r="J282" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8324,28 +8372,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="4">
+      <c r="A284" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="4">
+      <c r="C284" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="4">
+      <c r="E284" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="4">
+      <c r="F284" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="4">
+      <c r="G284" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="4">
+      <c r="H284" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8370,28 +8418,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="4">
+      <c r="B286" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="4">
+      <c r="C286" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="4">
+      <c r="D286" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="4">
+      <c r="E286" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="4">
+      <c r="F286" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="4">
+      <c r="G286" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="4">
+      <c r="H286" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="4">
+      <c r="I286" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8450,10 +8498,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="4" t="s">
+      <c r="J288" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8497,28 +8545,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="4">
+      <c r="A290" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="4">
+      <c r="B290" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="4">
+      <c r="C290" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="4">
+      <c r="E290" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="4">
+      <c r="F290" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="4">
+      <c r="G290" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="4">
+      <c r="H290" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8543,28 +8591,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="4">
+      <c r="C292" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="4">
+      <c r="D292" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="4">
+      <c r="E292" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="4">
+      <c r="F292" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="4">
+      <c r="G292" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="4">
+      <c r="H292" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="4">
+      <c r="I292" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8623,10 +8671,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="4" t="s">
+      <c r="J294" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8670,28 +8718,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="4">
+      <c r="A296" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="4">
+      <c r="B296" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="4">
+      <c r="C296" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="4">
+      <c r="E296" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="4">
+      <c r="F296" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="4">
+      <c r="G296" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="4">
+      <c r="H296" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8716,28 +8764,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="4">
+      <c r="B298" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="4">
+      <c r="C298" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="4">
+      <c r="D298" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="4">
+      <c r="E298" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="4">
+      <c r="F298" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="4">
+      <c r="G298" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="4">
+      <c r="H298" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="4">
+      <c r="I298" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8796,10 +8844,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="4" t="s">
+      <c r="J300" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8843,28 +8891,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="4">
+      <c r="A302" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="4">
+      <c r="B302" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="4">
+      <c r="C302" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="4">
+      <c r="E302" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="4">
+      <c r="F302" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="4">
+      <c r="G302" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="4">
+      <c r="H302" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8889,28 +8937,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="4">
+      <c r="B304" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="4">
+      <c r="C304" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="4">
+      <c r="D304" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="4">
+      <c r="E304" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="4">
+      <c r="F304" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="4">
+      <c r="G304" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="4">
+      <c r="H304" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="4">
+      <c r="I304" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8969,10 +9017,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="4" t="s">
+      <c r="J306" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9016,28 +9064,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="4">
+      <c r="A308" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="4">
+      <c r="B308" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="4">
+      <c r="C308" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="4">
+      <c r="E308" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="4">
+      <c r="F308" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="4">
+      <c r="G308" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="4">
+      <c r="H308" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9062,28 +9110,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="4">
+      <c r="B310" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="4">
+      <c r="C310" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="4">
+      <c r="D310" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="4">
+      <c r="E310" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="4">
+      <c r="F310" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="4">
+      <c r="G310" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="4">
+      <c r="H310" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="4">
+      <c r="I310" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9142,10 +9190,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="4" t="s">
+      <c r="J312" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9189,28 +9237,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="4">
+      <c r="A314" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="4">
+      <c r="B314" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="4">
+      <c r="C314" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="4">
+      <c r="E314" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="4">
+      <c r="F314" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="4">
+      <c r="G314" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="4">
+      <c r="H314" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9235,28 +9283,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="4">
+      <c r="B316" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="4">
+      <c r="C316" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="4">
+      <c r="D316" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="4">
+      <c r="E316" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="4">
+      <c r="F316" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="4">
+      <c r="G316" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="4">
+      <c r="H316" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="4">
+      <c r="I316" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9315,10 +9363,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="4" t="s">
+      <c r="J318" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9362,28 +9410,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="4">
+      <c r="A320" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="4">
+      <c r="B320" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="4">
+      <c r="C320" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="4">
+      <c r="E320" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="4">
+      <c r="F320" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="4">
+      <c r="G320" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="4">
+      <c r="H320" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9408,28 +9456,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="4">
+      <c r="B322" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="4">
+      <c r="C322" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="4">
+      <c r="D322" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="4">
+      <c r="E322" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="4">
+      <c r="F322" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="4">
+      <c r="G322" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="4">
+      <c r="H322" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="4">
+      <c r="I322" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9517,10 +9565,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="4" t="s">
+      <c r="J325" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9564,28 +9612,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="4">
+      <c r="A327" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="4">
+      <c r="C327" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9610,28 +9658,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="4">
+      <c r="B329" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="4">
+      <c r="C329" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="4">
+      <c r="D329" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="4">
+      <c r="E329" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="4">
+      <c r="F329" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="4">
+      <c r="G329" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="4">
+      <c r="H329" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="4">
+      <c r="I329" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9690,10 +9738,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="4" t="s">
+      <c r="J331" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9737,28 +9785,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="4">
+      <c r="A333" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="4">
+      <c r="B333" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="4">
+      <c r="C333" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="4">
+      <c r="E333" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="4">
+      <c r="F333" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="4">
+      <c r="G333" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="4">
+      <c r="H333" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9783,28 +9831,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="4">
+      <c r="B335" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="4">
+      <c r="C335" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="4">
+      <c r="D335" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="4">
+      <c r="E335" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="4">
+      <c r="F335" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="4">
+      <c r="G335" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="4">
+      <c r="H335" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="4">
+      <c r="I335" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9863,10 +9911,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="4" t="s">
+      <c r="J337" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9910,28 +9958,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="4">
+      <c r="A339" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="4">
+      <c r="B339" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="4">
+      <c r="C339" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="4">
+      <c r="E339" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="4">
+      <c r="F339" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="4">
+      <c r="G339" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="4">
+      <c r="H339" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9956,28 +10004,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="4">
+      <c r="B341" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="4">
+      <c r="C341" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="4">
+      <c r="D341" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="4">
+      <c r="E341" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="4">
+      <c r="F341" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="4">
+      <c r="G341" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="4">
+      <c r="H341" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="4">
+      <c r="I341" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10036,10 +10084,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="4" t="s">
+      <c r="J343" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10083,28 +10131,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="4">
+      <c r="A345" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="4">
+      <c r="B345" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="4">
+      <c r="C345" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="4">
+      <c r="E345" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="4">
+      <c r="F345" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="4">
+      <c r="G345" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="4">
+      <c r="H345" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10129,28 +10177,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="4">
+      <c r="B347" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="4">
+      <c r="C347" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="4">
+      <c r="D347" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="4">
+      <c r="E347" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="4">
+      <c r="F347" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="4">
+      <c r="G347" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="4">
+      <c r="H347" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="4">
+      <c r="I347" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10209,10 +10257,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="4" t="s">
+      <c r="J349" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10256,28 +10304,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="4">
+      <c r="A351" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="4">
+      <c r="B351" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="4">
+      <c r="C351" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="4">
+      <c r="E351" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="4">
+      <c r="F351" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="4">
+      <c r="G351" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="4">
+      <c r="H351" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10302,28 +10350,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="4">
+      <c r="C353" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="4">
+      <c r="D353" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="4">
+      <c r="I353" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10411,10 +10459,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="4" t="s">
+      <c r="J356" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10458,28 +10506,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="4">
+      <c r="A358" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="4">
+      <c r="B358" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="4">
+      <c r="C358" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="4">
+      <c r="E358" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="4">
+      <c r="F358" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="4">
+      <c r="G358" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="4">
+      <c r="H358" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10504,28 +10552,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="4">
+      <c r="B360" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="4">
+      <c r="C360" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="4">
+      <c r="D360" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="4">
+      <c r="E360" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="4">
+      <c r="F360" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="4">
+      <c r="G360" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="4">
+      <c r="H360" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="4">
+      <c r="I360" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10613,10 +10661,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="4" t="s">
+      <c r="J363" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10660,28 +10708,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="4">
+      <c r="A365" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="4">
+      <c r="B365" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="4">
+      <c r="C365" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="4">
+      <c r="E365" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="4">
+      <c r="F365" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="4">
+      <c r="G365" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="4">
+      <c r="H365" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10706,28 +10754,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="4">
+      <c r="B367" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="4">
+      <c r="C367" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="4">
+      <c r="D367" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="4">
+      <c r="E367" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="4">
+      <c r="F367" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="4">
+      <c r="G367" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="4">
+      <c r="H367" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="4">
+      <c r="I367" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10786,10 +10834,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="4" t="s">
+      <c r="J369" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10833,28 +10881,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="4">
+      <c r="A371" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="4">
+      <c r="B371" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="4">
+      <c r="C371" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="4">
+      <c r="E371" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="4">
+      <c r="F371" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="4">
+      <c r="G371" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="4">
+      <c r="H371" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10879,28 +10927,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="4">
+      <c r="B373" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="4">
+      <c r="C373" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="4">
+      <c r="D373" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="4">
+      <c r="E373" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="4">
+      <c r="F373" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="4">
+      <c r="G373" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="4">
+      <c r="H373" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="4">
+      <c r="I373" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10959,10 +11007,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="4" t="s">
+      <c r="J375" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -11006,28 +11054,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="4">
+      <c r="A377" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="4">
+      <c r="B377" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="4">
+      <c r="C377" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="4">
+      <c r="E377" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="4">
+      <c r="F377" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="4">
+      <c r="G377" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="4">
+      <c r="H377" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11052,28 +11100,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="4">
+      <c r="B379" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="4">
+      <c r="C379" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="4">
+      <c r="D379" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="4">
+      <c r="E379" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="4">
+      <c r="F379" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="4">
+      <c r="G379" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="4">
+      <c r="H379" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="4">
+      <c r="I379" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11132,10 +11180,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="4" t="s">
+      <c r="J381" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11179,28 +11227,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="4">
+      <c r="A383" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="4">
+      <c r="B383" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="4">
+      <c r="C383" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="4">
+      <c r="E383" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="4">
+      <c r="F383" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="4">
+      <c r="G383" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="4">
+      <c r="H383" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11225,28 +11273,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="4">
+      <c r="B385" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="4">
+      <c r="C385" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="4">
+      <c r="D385" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="4">
+      <c r="E385" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="4">
+      <c r="F385" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="4">
+      <c r="G385" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="4">
+      <c r="H385" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="4">
+      <c r="I385" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11305,10 +11353,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="4" t="s">
+      <c r="J387" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11352,28 +11400,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="4">
+      <c r="A389" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="4">
+      <c r="B389" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="4">
+      <c r="C389" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="4">
+      <c r="E389" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="4">
+      <c r="F389" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="4">
+      <c r="G389" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="4">
+      <c r="H389" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11398,28 +11446,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="4">
+      <c r="B391" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="4">
+      <c r="C391" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="4">
+      <c r="D391" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="4">
+      <c r="E391" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="4">
+      <c r="F391" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="4">
+      <c r="G391" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="4">
+      <c r="H391" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="4">
+      <c r="I391" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11536,10 +11584,10 @@
       <c r="I395">
         <f>((C395-C394)^2+(D395- D394)^2)^.5</f>
       </c>
-      <c r="J395" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K395" s="4" t="s">
+      <c r="J395" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L395" t="n">
@@ -11583,28 +11631,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s" s="4">
+      <c r="A397" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B397" t="s" s="4">
+      <c r="B397" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C397" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s" s="4">
+      <c r="C397" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E397" t="s" s="4">
+      <c r="E397" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F397" t="s" s="4">
+      <c r="F397" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G397" t="s" s="4">
+      <c r="G397" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H397" t="s" s="4">
+      <c r="H397" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11629,28 +11677,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="B399" t="s" s="4">
+      <c r="B399" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C399" t="s" s="4">
+      <c r="C399" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D399" t="s" s="4">
+      <c r="D399" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E399" t="s" s="4">
+      <c r="E399" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F399" t="s" s="4">
+      <c r="F399" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G399" t="s" s="4">
+      <c r="G399" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H399" t="s" s="4">
+      <c r="H399" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I399" t="s" s="4">
+      <c r="I399" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11738,10 +11786,10 @@
       <c r="I402">
         <f>((C402-C401)^2+(D402- D401)^2)^.5</f>
       </c>
-      <c r="J402" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K402" s="4" t="s">
+      <c r="J402" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K402" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L402" t="n">
@@ -11785,28 +11833,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="s" s="4">
+      <c r="A404" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B404" t="s" s="4">
+      <c r="B404" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C404" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D404" t="s" s="4">
+      <c r="C404" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D404" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E404" t="s" s="4">
+      <c r="E404" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F404" t="s" s="4">
+      <c r="F404" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G404" t="s" s="4">
+      <c r="G404" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H404" t="s" s="4">
+      <c r="H404" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11831,28 +11879,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="B406" t="s" s="4">
+      <c r="B406" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C406" t="s" s="4">
+      <c r="C406" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D406" t="s" s="4">
+      <c r="D406" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E406" t="s" s="4">
+      <c r="E406" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F406" t="s" s="4">
+      <c r="F406" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G406" t="s" s="4">
+      <c r="G406" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H406" t="s" s="4">
+      <c r="H406" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I406" t="s" s="4">
+      <c r="I406" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11969,10 +12017,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="4" t="s">
+      <c r="J410" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12016,28 +12064,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="4">
+      <c r="A412" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="4">
+      <c r="B412" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="4">
+      <c r="C412" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="4">
+      <c r="E412" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="4">
+      <c r="F412" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="4">
+      <c r="G412" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="4">
+      <c r="H412" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12062,28 +12110,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="4">
+      <c r="B414" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="4">
+      <c r="C414" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="4">
+      <c r="D414" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="4">
+      <c r="E414" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="4">
+      <c r="F414" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="4">
+      <c r="G414" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="4">
+      <c r="H414" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="4">
+      <c r="I414" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12171,10 +12219,10 @@
       <c r="I417">
         <f>((C417-C416)^2+(D417- D416)^2)^.5</f>
       </c>
-      <c r="J417" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K417" s="4" t="s">
+      <c r="J417" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K417" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L417" t="n">
@@ -12218,28 +12266,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="s" s="4">
+      <c r="A419" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B419" t="s" s="4">
+      <c r="B419" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C419" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D419" t="s" s="4">
+      <c r="C419" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D419" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E419" t="s" s="4">
+      <c r="E419" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F419" t="s" s="4">
+      <c r="F419" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G419" t="s" s="4">
+      <c r="G419" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H419" t="s" s="4">
+      <c r="H419" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12264,28 +12312,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="B421" t="s" s="4">
+      <c r="B421" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C421" t="s" s="4">
+      <c r="C421" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D421" t="s" s="4">
+      <c r="D421" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E421" t="s" s="4">
+      <c r="E421" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F421" t="s" s="4">
+      <c r="F421" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G421" t="s" s="4">
+      <c r="G421" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H421" t="s" s="4">
+      <c r="H421" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I421" t="s" s="4">
+      <c r="I421" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12344,10 +12392,10 @@
       <c r="I423">
         <f>((C423-C422)^2+(D423- D422)^2)^.5</f>
       </c>
-      <c r="J423" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K423" s="4" t="s">
+      <c r="J423" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K423" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L423" t="n">
@@ -12391,28 +12439,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="s" s="4">
+      <c r="A425" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B425" t="s" s="4">
+      <c r="B425" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C425" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D425" t="s" s="4">
+      <c r="C425" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D425" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E425" t="s" s="4">
+      <c r="E425" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F425" t="s" s="4">
+      <c r="F425" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G425" t="s" s="4">
+      <c r="G425" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H425" t="s" s="4">
+      <c r="H425" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12437,28 +12485,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="B427" t="s" s="4">
+      <c r="B427" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C427" t="s" s="4">
+      <c r="C427" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D427" t="s" s="4">
+      <c r="D427" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E427" t="s" s="4">
+      <c r="E427" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F427" t="s" s="4">
+      <c r="F427" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G427" t="s" s="4">
+      <c r="G427" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H427" t="s" s="4">
+      <c r="H427" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I427" t="s" s="4">
+      <c r="I427" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12517,10 +12565,10 @@
       <c r="I429">
         <f>((C429-C428)^2+(D429- D428)^2)^.5</f>
       </c>
-      <c r="J429" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K429" s="4" t="s">
+      <c r="J429" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K429" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L429" t="n">
@@ -12564,28 +12612,28 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="s" s="4">
+      <c r="A431" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B431" t="s" s="4">
+      <c r="B431" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C431" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D431" t="s" s="4">
+      <c r="C431" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D431" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E431" t="s" s="4">
+      <c r="E431" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F431" t="s" s="4">
+      <c r="F431" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G431" t="s" s="4">
+      <c r="G431" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H431" t="s" s="4">
+      <c r="H431" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12610,28 +12658,28 @@
       </c>
     </row>
     <row r="433">
-      <c r="B433" t="s" s="4">
+      <c r="B433" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C433" t="s" s="4">
+      <c r="C433" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D433" t="s" s="4">
+      <c r="D433" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E433" t="s" s="4">
+      <c r="E433" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F433" t="s" s="4">
+      <c r="F433" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G433" t="s" s="4">
+      <c r="G433" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H433" t="s" s="4">
+      <c r="H433" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I433" t="s" s="4">
+      <c r="I433" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12690,10 +12738,10 @@
       <c r="I435">
         <f>((C435-C434)^2+(D435- D434)^2)^.5</f>
       </c>
-      <c r="J435" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K435" s="4" t="s">
+      <c r="J435" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K435" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L435" t="n">
@@ -12737,28 +12785,28 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="s" s="4">
+      <c r="A437" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B437" t="s" s="4">
+      <c r="B437" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C437" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D437" t="s" s="4">
+      <c r="C437" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D437" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E437" t="s" s="4">
+      <c r="E437" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F437" t="s" s="4">
+      <c r="F437" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G437" t="s" s="4">
+      <c r="G437" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H437" t="s" s="4">
+      <c r="H437" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12783,28 +12831,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="B439" t="s" s="4">
+      <c r="B439" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C439" t="s" s="4">
+      <c r="C439" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D439" t="s" s="4">
+      <c r="D439" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E439" t="s" s="4">
+      <c r="E439" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F439" t="s" s="4">
+      <c r="F439" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G439" t="s" s="4">
+      <c r="G439" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H439" t="s" s="4">
+      <c r="H439" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I439" t="s" s="4">
+      <c r="I439" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12863,10 +12911,10 @@
       <c r="I441">
         <f>((C441-C440)^2+(D441- D440)^2)^.5</f>
       </c>
-      <c r="J441" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K441" s="4" t="s">
+      <c r="J441" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K441" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L441" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c101_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14880" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18600" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -421,10 +439,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -468,28 +486,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="12">
+      <c r="A10" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="12">
+      <c r="B10" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="12">
+      <c r="C10" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="12">
+      <c r="E10" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="12">
+      <c r="F10" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="12">
+      <c r="G10" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="12">
+      <c r="H10" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -514,28 +532,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="12">
+      <c r="D12" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="12">
+      <c r="I12" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -652,10 +670,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="J16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -699,28 +717,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="12">
+      <c r="C18" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -745,28 +763,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -825,10 +843,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -872,28 +890,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="12">
+      <c r="A24" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="12">
+      <c r="C24" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -918,28 +936,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="12">
+      <c r="I26" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -998,10 +1016,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -1045,28 +1063,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="12">
+      <c r="A30" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="12">
+      <c r="C30" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1091,28 +1109,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="12">
+      <c r="C32" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="12">
+      <c r="I32" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1432,10 +1450,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="12" t="s">
+      <c r="J43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1479,28 +1497,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="12">
+      <c r="A45" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="12">
+      <c r="C45" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1525,28 +1543,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="12">
+      <c r="C47" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="12">
+      <c r="D47" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="12">
+      <c r="I47" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1663,10 +1681,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="12" t="s">
+      <c r="J51" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1710,28 +1728,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="12">
+      <c r="A53" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="12">
+      <c r="B53" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s" s="12">
+      <c r="C53" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="12">
+      <c r="E53" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="12">
+      <c r="F53" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="12">
+      <c r="G53" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="12">
+      <c r="H53" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1756,28 +1774,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="12">
+      <c r="C55" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="12">
+      <c r="D55" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="12">
+      <c r="I55" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1854,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="J57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1883,28 +1901,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="12">
+      <c r="A59" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="12">
+      <c r="B59" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="12">
+      <c r="C59" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="12">
+      <c r="E59" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="12">
+      <c r="F59" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="12">
+      <c r="G59" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1947,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="12">
+      <c r="I61" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2009,10 +2027,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="12" t="s">
+      <c r="J63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2056,28 +2074,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="12">
+      <c r="A65" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="12">
+      <c r="B65" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="12">
+      <c r="C65" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="12">
+      <c r="F65" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="12">
+      <c r="G65" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2102,28 +2120,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="12">
+      <c r="C67" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="12">
+      <c r="D67" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="12">
+      <c r="I67" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2182,10 +2200,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="12" t="s">
+      <c r="J69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2229,28 +2247,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="12">
+      <c r="A71" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="12">
+      <c r="C71" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2275,28 +2293,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="12">
+      <c r="I73" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2355,10 +2373,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="12" t="s">
+      <c r="J75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2402,28 +2420,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="12">
+      <c r="A77" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="12">
+      <c r="C77" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2448,28 +2466,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="12">
+      <c r="C79" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="12">
+      <c r="D79" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="12">
+      <c r="I79" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2528,10 +2546,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="12" t="s">
+      <c r="J81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2575,28 +2593,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="12">
+      <c r="A83" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="12">
+      <c r="C83" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2621,28 +2639,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="12">
+      <c r="F85" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="12">
+      <c r="G85" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="12">
+      <c r="I85" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2701,10 +2719,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="12" t="s">
+      <c r="J87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2748,28 +2766,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="12">
+      <c r="C89" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2794,28 +2812,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2874,10 +2892,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="12" t="s">
+      <c r="J93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2921,28 +2939,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="12">
+      <c r="A95" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="12">
+      <c r="C95" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2967,28 +2985,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="12">
+      <c r="I97" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3047,10 +3065,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="12" t="s">
+      <c r="J99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3094,28 +3112,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="12">
+      <c r="A101" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="12">
+      <c r="C101" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="12">
+      <c r="F101" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="12">
+      <c r="G101" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3140,28 +3158,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="12">
+      <c r="C103" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="12">
+      <c r="D103" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="12">
+      <c r="I103" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3220,10 +3238,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="12" t="s">
+      <c r="J105" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3267,28 +3285,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="12">
+      <c r="A107" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="12">
+      <c r="C107" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3313,28 +3331,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="12">
+      <c r="C109" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="12">
+      <c r="D109" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="12">
+      <c r="I109" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3393,10 +3411,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="12" t="s">
+      <c r="J111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3440,28 +3458,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="12">
+      <c r="A113" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="12">
+      <c r="C113" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3486,28 +3504,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="12">
+      <c r="C115" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="D115" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="12">
+      <c r="I115" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3566,10 +3584,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="12" t="s">
+      <c r="J117" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3613,28 +3631,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="12">
+      <c r="A119" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="12">
+      <c r="C119" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3659,28 +3677,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="12">
+      <c r="C121" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="12">
+      <c r="D121" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="12">
+      <c r="I121" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3768,10 +3786,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="12" t="s">
+      <c r="J124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3815,28 +3833,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="A126" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="12">
+      <c r="C126" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3861,28 +3879,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="12">
+      <c r="D128" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="12">
+      <c r="I128" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3941,10 +3959,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="12" t="s">
+      <c r="J130" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3988,28 +4006,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="12">
+      <c r="A132" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="12">
+      <c r="C132" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4034,28 +4052,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="12">
+      <c r="C134" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="12">
+      <c r="D134" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="12">
+      <c r="I134" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4114,10 +4132,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="12" t="s">
+      <c r="J136" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4161,28 +4179,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="12">
+      <c r="A138" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="12">
+      <c r="C138" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4207,28 +4225,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="12">
+      <c r="C140" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="12">
+      <c r="D140" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="12">
+      <c r="I140" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4287,10 +4305,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="12" t="s">
+      <c r="J142" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4334,28 +4352,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="12">
+      <c r="A144" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="12">
+      <c r="C144" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4380,28 +4398,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="12">
+      <c r="C146" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="12">
+      <c r="D146" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="12">
+      <c r="I146" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4460,10 +4478,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="12" t="s">
+      <c r="J148" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4507,28 +4525,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="12">
+      <c r="A150" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="12">
+      <c r="C150" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4553,28 +4571,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="12">
+      <c r="C152" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="12">
+      <c r="D152" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="12">
+      <c r="I152" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4633,10 +4651,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="12" t="s">
+      <c r="J154" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4680,28 +4698,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="12">
+      <c r="A156" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="12">
+      <c r="C156" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4726,28 +4744,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="12">
+      <c r="I158" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4806,10 +4824,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="12" t="s">
+      <c r="J160" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4853,28 +4871,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="12">
+      <c r="A162" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="12">
+      <c r="C162" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4899,28 +4917,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="12">
+      <c r="I164" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5055,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5084,28 +5102,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5148,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5210,10 +5228,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="12" t="s">
+      <c r="J174" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5257,28 +5275,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="12">
+      <c r="A176" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="12">
+      <c r="C176" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5303,28 +5321,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="12">
+      <c r="I178" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5412,10 +5430,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="12" t="s">
+      <c r="J181" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5459,28 +5477,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="12">
+      <c r="A183" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="12">
+      <c r="C183" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5505,28 +5523,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="12">
+      <c r="B185" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="12">
+      <c r="C185" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="12">
+      <c r="D185" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="12">
+      <c r="E185" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="12">
+      <c r="F185" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="12">
+      <c r="G185" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="12">
+      <c r="H185" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="12">
+      <c r="I185" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5585,10 +5603,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="12" t="s">
+      <c r="J187" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5632,28 +5650,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="12">
+      <c r="A189" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="12">
+      <c r="C189" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="12">
+      <c r="E189" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="12">
+      <c r="F189" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="12">
+      <c r="G189" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="12">
+      <c r="H189" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5678,28 +5696,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="12">
+      <c r="B191" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="12">
+      <c r="C191" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="12">
+      <c r="D191" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="12">
+      <c r="E191" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="12">
+      <c r="F191" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="12">
+      <c r="G191" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="12">
+      <c r="H191" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="12">
+      <c r="I191" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5758,10 +5776,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="12" t="s">
+      <c r="J193" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5805,28 +5823,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="12">
+      <c r="A195" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="12">
+      <c r="B195" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="12">
+      <c r="C195" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="12">
+      <c r="E195" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="12">
+      <c r="F195" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="12">
+      <c r="G195" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="12">
+      <c r="H195" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5851,28 +5869,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="12">
+      <c r="C197" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="12">
+      <c r="D197" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="12">
+      <c r="I197" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5931,10 +5949,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="12" t="s">
+      <c r="J199" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5978,28 +5996,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="12">
+      <c r="A201" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="12">
+      <c r="B201" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="12">
+      <c r="C201" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="12">
+      <c r="E201" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="12">
+      <c r="F201" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="12">
+      <c r="G201" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="12">
+      <c r="H201" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6024,28 +6042,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="12">
+      <c r="B203" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="12">
+      <c r="C203" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="12">
+      <c r="D203" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="12">
+      <c r="E203" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="12">
+      <c r="F203" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="12">
+      <c r="G203" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="12">
+      <c r="H203" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="12">
+      <c r="I203" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6104,10 +6122,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="12" t="s">
+      <c r="J205" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6151,28 +6169,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="12">
+      <c r="A207" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="12">
+      <c r="C207" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6197,28 +6215,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="12">
+      <c r="B209" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="12">
+      <c r="C209" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="12">
+      <c r="D209" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="12">
+      <c r="E209" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="12">
+      <c r="F209" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="12">
+      <c r="G209" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="12">
+      <c r="H209" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="12">
+      <c r="I209" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6277,10 +6295,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="12" t="s">
+      <c r="J211" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6324,28 +6342,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="12">
+      <c r="A213" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="12">
+      <c r="C213" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="12">
+      <c r="E213" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="12">
+      <c r="F213" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="12">
+      <c r="G213" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="12">
+      <c r="H213" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6370,28 +6388,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="12">
+      <c r="C215" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="12">
+      <c r="D215" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="12">
+      <c r="I215" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6450,10 +6468,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="J217" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6497,28 +6515,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="12">
+      <c r="A219" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="12">
+      <c r="C219" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6543,28 +6561,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="12">
+      <c r="D221" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="12">
+      <c r="I221" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6710,10 +6728,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="12" t="s">
+      <c r="J226" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6757,28 +6775,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="12">
+      <c r="A228" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="12">
+      <c r="C228" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="12">
+      <c r="E228" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="12">
+      <c r="F228" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="12">
+      <c r="G228" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="12">
+      <c r="H228" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6803,28 +6821,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="12">
+      <c r="B230" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="12">
+      <c r="C230" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="12">
+      <c r="D230" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="12">
+      <c r="E230" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="12">
+      <c r="F230" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="12">
+      <c r="G230" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="12">
+      <c r="H230" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="12">
+      <c r="I230" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6883,10 +6901,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="12" t="s">
+      <c r="J232" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6930,28 +6948,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="12">
+      <c r="A234" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="12">
+      <c r="C234" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="12">
+      <c r="E234" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="12">
+      <c r="F234" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="12">
+      <c r="G234" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="12">
+      <c r="H234" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6976,28 +6994,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="12">
+      <c r="B236" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="12">
+      <c r="C236" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="12">
+      <c r="D236" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="12">
+      <c r="E236" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="12">
+      <c r="F236" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="12">
+      <c r="G236" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="12">
+      <c r="H236" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="12">
+      <c r="I236" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7056,10 +7074,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="12" t="s">
+      <c r="J238" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7103,28 +7121,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="12">
+      <c r="A240" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="12">
+      <c r="C240" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7149,28 +7167,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="12">
+      <c r="C242" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="12">
+      <c r="D242" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="12">
+      <c r="I242" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7229,10 +7247,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="12" t="s">
+      <c r="J244" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7276,28 +7294,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="12">
+      <c r="A246" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="12">
+      <c r="C246" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7322,28 +7340,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="12">
+      <c r="C248" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="12">
+      <c r="D248" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="12">
+      <c r="E248" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="12">
+      <c r="F248" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="12">
+      <c r="G248" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="12">
+      <c r="H248" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="12">
+      <c r="I248" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7431,10 +7449,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="12" t="s">
+      <c r="J251" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7478,28 +7496,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="12">
+      <c r="A253" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="12">
+      <c r="B253" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="12">
+      <c r="C253" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="12">
+      <c r="E253" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="12">
+      <c r="F253" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="12">
+      <c r="G253" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="12">
+      <c r="H253" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7524,28 +7542,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="12">
+      <c r="B255" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="12">
+      <c r="C255" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="12">
+      <c r="D255" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="12">
+      <c r="E255" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="12">
+      <c r="F255" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="12">
+      <c r="G255" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="12">
+      <c r="H255" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="12">
+      <c r="I255" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7633,10 +7651,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="12" t="s">
+      <c r="J258" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7680,28 +7698,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="12">
+      <c r="A260" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="12">
+      <c r="B260" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="12">
+      <c r="C260" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="12">
+      <c r="E260" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="12">
+      <c r="F260" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="12">
+      <c r="G260" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="12">
+      <c r="H260" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7726,28 +7744,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="12">
+      <c r="C262" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="12">
+      <c r="D262" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="12">
+      <c r="I262" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7806,10 +7824,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="12" t="s">
+      <c r="J264" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7853,28 +7871,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="12">
+      <c r="A266" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="12">
+      <c r="B266" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="12">
+      <c r="C266" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="12">
+      <c r="E266" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="12">
+      <c r="F266" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="12">
+      <c r="G266" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="12">
+      <c r="H266" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7899,28 +7917,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="12">
+      <c r="B268" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="12">
+      <c r="C268" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="12">
+      <c r="D268" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="12">
+      <c r="E268" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="12">
+      <c r="F268" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="12">
+      <c r="G268" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="12">
+      <c r="H268" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="12">
+      <c r="I268" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7979,10 +7997,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="12" t="s">
+      <c r="J270" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -8026,28 +8044,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="12">
+      <c r="A272" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="12">
+      <c r="B272" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="12">
+      <c r="C272" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="12">
+      <c r="E272" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="12">
+      <c r="F272" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="12">
+      <c r="G272" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="12">
+      <c r="H272" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8072,28 +8090,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="12">
+      <c r="C274" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="12">
+      <c r="D274" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="12">
+      <c r="I274" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8152,10 +8170,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="12" t="s">
+      <c r="J276" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8199,28 +8217,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="12">
+      <c r="A278" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="12">
+      <c r="B278" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="12">
+      <c r="C278" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="12">
+      <c r="E278" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="12">
+      <c r="F278" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="12">
+      <c r="G278" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="12">
+      <c r="H278" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8245,28 +8263,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="12">
+      <c r="B280" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="12">
+      <c r="C280" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="12">
+      <c r="D280" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="12">
+      <c r="E280" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="12">
+      <c r="F280" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="12">
+      <c r="G280" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="12">
+      <c r="H280" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="12">
+      <c r="I280" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8325,10 +8343,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="12" t="s">
+      <c r="J282" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8372,28 +8390,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="12">
+      <c r="A284" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="12">
+      <c r="B284" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="12">
+      <c r="C284" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="12">
+      <c r="E284" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="12">
+      <c r="F284" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="12">
+      <c r="G284" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="12">
+      <c r="H284" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8418,28 +8436,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="12">
+      <c r="B286" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="12">
+      <c r="C286" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="12">
+      <c r="D286" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="12">
+      <c r="E286" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="12">
+      <c r="F286" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="12">
+      <c r="G286" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="12">
+      <c r="H286" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="12">
+      <c r="I286" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8498,10 +8516,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="12" t="s">
+      <c r="J288" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8545,28 +8563,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="12">
+      <c r="A290" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="12">
+      <c r="C290" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="12">
+      <c r="E290" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="12">
+      <c r="F290" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="12">
+      <c r="G290" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="12">
+      <c r="H290" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8591,28 +8609,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="12">
+      <c r="C292" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="12">
+      <c r="D292" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="12">
+      <c r="E292" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="12">
+      <c r="F292" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="12">
+      <c r="G292" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="12">
+      <c r="H292" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="12">
+      <c r="I292" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8671,10 +8689,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="12" t="s">
+      <c r="J294" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8718,28 +8736,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="12">
+      <c r="A296" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="12">
+      <c r="B296" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="12">
+      <c r="C296" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="12">
+      <c r="E296" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="12">
+      <c r="F296" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="12">
+      <c r="G296" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="12">
+      <c r="H296" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8764,28 +8782,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="12">
+      <c r="C298" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="12">
+      <c r="D298" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="12">
+      <c r="E298" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="12">
+      <c r="F298" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="12">
+      <c r="G298" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="12">
+      <c r="H298" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="12">
+      <c r="I298" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8844,10 +8862,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="12" t="s">
+      <c r="J300" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8891,28 +8909,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="12">
+      <c r="A302" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="12">
+      <c r="B302" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="12">
+      <c r="C302" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="12">
+      <c r="E302" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="12">
+      <c r="F302" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="12">
+      <c r="G302" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="12">
+      <c r="H302" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8937,28 +8955,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="12">
+      <c r="B304" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="12">
+      <c r="C304" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="12">
+      <c r="D304" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="12">
+      <c r="E304" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="12">
+      <c r="F304" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="12">
+      <c r="G304" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="12">
+      <c r="H304" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="12">
+      <c r="I304" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9017,10 +9035,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="12" t="s">
+      <c r="J306" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9064,28 +9082,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="12">
+      <c r="A308" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="12">
+      <c r="B308" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="12">
+      <c r="C308" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="12">
+      <c r="E308" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="12">
+      <c r="F308" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="12">
+      <c r="G308" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="12">
+      <c r="H308" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9110,28 +9128,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="12">
+      <c r="B310" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="12">
+      <c r="C310" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="12">
+      <c r="D310" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="12">
+      <c r="E310" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="12">
+      <c r="F310" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="12">
+      <c r="G310" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="12">
+      <c r="H310" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="12">
+      <c r="I310" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9190,10 +9208,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="12" t="s">
+      <c r="J312" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9237,28 +9255,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="12">
+      <c r="A314" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="12">
+      <c r="B314" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="12">
+      <c r="C314" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="12">
+      <c r="E314" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="12">
+      <c r="F314" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="12">
+      <c r="G314" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="12">
+      <c r="H314" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9283,28 +9301,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="12">
+      <c r="B316" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="12">
+      <c r="C316" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="12">
+      <c r="D316" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="12">
+      <c r="E316" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="12">
+      <c r="F316" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="12">
+      <c r="G316" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="12">
+      <c r="H316" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="12">
+      <c r="I316" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9363,10 +9381,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="12" t="s">
+      <c r="J318" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9410,28 +9428,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="12">
+      <c r="A320" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="12">
+      <c r="B320" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="12">
+      <c r="C320" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="12">
+      <c r="E320" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="12">
+      <c r="F320" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="12">
+      <c r="G320" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="12">
+      <c r="H320" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9456,28 +9474,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="12">
+      <c r="B322" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="12">
+      <c r="C322" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="12">
+      <c r="D322" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="12">
+      <c r="E322" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="12">
+      <c r="F322" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="12">
+      <c r="G322" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="12">
+      <c r="H322" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="12">
+      <c r="I322" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9565,10 +9583,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="12" t="s">
+      <c r="J325" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9612,28 +9630,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="12">
+      <c r="A327" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="12">
+      <c r="C327" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9658,28 +9676,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="12">
+      <c r="B329" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="12">
+      <c r="C329" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="12">
+      <c r="D329" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="12">
+      <c r="E329" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="12">
+      <c r="F329" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="12">
+      <c r="G329" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="12">
+      <c r="H329" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="12">
+      <c r="I329" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9738,10 +9756,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="12" t="s">
+      <c r="J331" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9785,28 +9803,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="12">
+      <c r="A333" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="12">
+      <c r="B333" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="12">
+      <c r="C333" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="12">
+      <c r="E333" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="12">
+      <c r="F333" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="12">
+      <c r="G333" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="12">
+      <c r="H333" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9831,28 +9849,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="12">
+      <c r="B335" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="12">
+      <c r="C335" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="12">
+      <c r="D335" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="12">
+      <c r="E335" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="12">
+      <c r="F335" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="12">
+      <c r="G335" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="12">
+      <c r="H335" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="12">
+      <c r="I335" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9911,10 +9929,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="12" t="s">
+      <c r="J337" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9958,28 +9976,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="12">
+      <c r="A339" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="12">
+      <c r="B339" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="12">
+      <c r="C339" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="12">
+      <c r="E339" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="12">
+      <c r="F339" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="12">
+      <c r="G339" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="12">
+      <c r="H339" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10004,28 +10022,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="12">
+      <c r="B341" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="12">
+      <c r="C341" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="12">
+      <c r="D341" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="12">
+      <c r="E341" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="12">
+      <c r="F341" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="12">
+      <c r="G341" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="12">
+      <c r="H341" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="12">
+      <c r="I341" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10084,10 +10102,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="12" t="s">
+      <c r="J343" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10131,28 +10149,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="12">
+      <c r="A345" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="12">
+      <c r="B345" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="12">
+      <c r="C345" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="12">
+      <c r="E345" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="12">
+      <c r="F345" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="12">
+      <c r="G345" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="12">
+      <c r="H345" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10177,28 +10195,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="12">
+      <c r="B347" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="12">
+      <c r="C347" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="12">
+      <c r="D347" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="12">
+      <c r="E347" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="12">
+      <c r="F347" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="12">
+      <c r="G347" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="12">
+      <c r="H347" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="12">
+      <c r="I347" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10257,10 +10275,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="12" t="s">
+      <c r="J349" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10304,28 +10322,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="12">
+      <c r="A351" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="12">
+      <c r="B351" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="12">
+      <c r="C351" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="12">
+      <c r="E351" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="12">
+      <c r="F351" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="12">
+      <c r="G351" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="12">
+      <c r="H351" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10350,28 +10368,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="12">
+      <c r="C353" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="12">
+      <c r="D353" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="12">
+      <c r="I353" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10459,10 +10477,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="12" t="s">
+      <c r="J356" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10506,28 +10524,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="12">
+      <c r="A358" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="12">
+      <c r="B358" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="12">
+      <c r="C358" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="12">
+      <c r="E358" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="12">
+      <c r="F358" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="12">
+      <c r="G358" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="12">
+      <c r="H358" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10552,28 +10570,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="12">
+      <c r="B360" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="12">
+      <c r="C360" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="12">
+      <c r="D360" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="12">
+      <c r="E360" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="12">
+      <c r="F360" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="12">
+      <c r="G360" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="12">
+      <c r="H360" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="12">
+      <c r="I360" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10661,10 +10679,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="12" t="s">
+      <c r="J363" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10708,28 +10726,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="12">
+      <c r="A365" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="12">
+      <c r="B365" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="12">
+      <c r="C365" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="12">
+      <c r="E365" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="12">
+      <c r="F365" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="12">
+      <c r="G365" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="12">
+      <c r="H365" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10754,28 +10772,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="12">
+      <c r="B367" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="12">
+      <c r="C367" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="12">
+      <c r="D367" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="12">
+      <c r="E367" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="12">
+      <c r="F367" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="12">
+      <c r="G367" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="12">
+      <c r="H367" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="12">
+      <c r="I367" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10834,10 +10852,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="12" t="s">
+      <c r="J369" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10881,28 +10899,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="12">
+      <c r="A371" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="12">
+      <c r="B371" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="12">
+      <c r="C371" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="12">
+      <c r="E371" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="12">
+      <c r="F371" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="12">
+      <c r="G371" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="12">
+      <c r="H371" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10927,28 +10945,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="12">
+      <c r="B373" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="12">
+      <c r="C373" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="12">
+      <c r="D373" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="12">
+      <c r="E373" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="12">
+      <c r="F373" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="12">
+      <c r="G373" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="12">
+      <c r="H373" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="12">
+      <c r="I373" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11007,10 +11025,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="12" t="s">
+      <c r="J375" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -11054,28 +11072,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="12">
+      <c r="A377" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="12">
+      <c r="B377" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="12">
+      <c r="C377" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="12">
+      <c r="E377" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="12">
+      <c r="F377" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="12">
+      <c r="G377" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="12">
+      <c r="H377" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11100,28 +11118,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="12">
+      <c r="B379" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="12">
+      <c r="C379" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="12">
+      <c r="D379" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="12">
+      <c r="E379" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="12">
+      <c r="F379" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="12">
+      <c r="G379" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="12">
+      <c r="H379" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="12">
+      <c r="I379" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11180,10 +11198,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="12" t="s">
+      <c r="J381" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
@@ -11227,28 +11245,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="s" s="12">
+      <c r="A383" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B383" t="s" s="12">
+      <c r="B383" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C383" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D383" t="s" s="12">
+      <c r="C383" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D383" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E383" t="s" s="12">
+      <c r="E383" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F383" t="s" s="12">
+      <c r="F383" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G383" t="s" s="12">
+      <c r="G383" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H383" t="s" s="12">
+      <c r="H383" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11273,28 +11291,28 @@
       </c>
     </row>
     <row r="385">
-      <c r="B385" t="s" s="12">
+      <c r="B385" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C385" t="s" s="12">
+      <c r="C385" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D385" t="s" s="12">
+      <c r="D385" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E385" t="s" s="12">
+      <c r="E385" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F385" t="s" s="12">
+      <c r="F385" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G385" t="s" s="12">
+      <c r="G385" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H385" t="s" s="12">
+      <c r="H385" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I385" t="s" s="12">
+      <c r="I385" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11353,10 +11371,10 @@
       <c r="I387">
         <f>((C387-C386)^2+(D387- D386)^2)^.5</f>
       </c>
-      <c r="J387" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K387" s="12" t="s">
+      <c r="J387" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K387" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L387" t="n">
@@ -11400,28 +11418,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="s" s="12">
+      <c r="A389" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B389" t="s" s="12">
+      <c r="B389" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C389" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D389" t="s" s="12">
+      <c r="C389" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D389" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E389" t="s" s="12">
+      <c r="E389" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F389" t="s" s="12">
+      <c r="F389" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G389" t="s" s="12">
+      <c r="G389" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H389" t="s" s="12">
+      <c r="H389" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11446,28 +11464,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="B391" t="s" s="12">
+      <c r="B391" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C391" t="s" s="12">
+      <c r="C391" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D391" t="s" s="12">
+      <c r="D391" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E391" t="s" s="12">
+      <c r="E391" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F391" t="s" s="12">
+      <c r="F391" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G391" t="s" s="12">
+      <c r="G391" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H391" t="s" s="12">
+      <c r="H391" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I391" t="s" s="12">
+      <c r="I391" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11584,10 +11602,10 @@
       <c r="I395">
         <f>((C395-C394)^2+(D395- D394)^2)^.5</f>
       </c>
-      <c r="J395" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K395" s="12" t="s">
+      <c r="J395" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K395" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L395" t="n">
@@ -11631,28 +11649,28 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="s" s="12">
+      <c r="A397" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B397" t="s" s="12">
+      <c r="B397" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C397" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D397" t="s" s="12">
+      <c r="C397" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D397" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E397" t="s" s="12">
+      <c r="E397" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F397" t="s" s="12">
+      <c r="F397" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G397" t="s" s="12">
+      <c r="G397" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H397" t="s" s="12">
+      <c r="H397" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11677,28 +11695,28 @@
       </c>
     </row>
     <row r="399">
-      <c r="B399" t="s" s="12">
+      <c r="B399" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C399" t="s" s="12">
+      <c r="C399" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D399" t="s" s="12">
+      <c r="D399" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E399" t="s" s="12">
+      <c r="E399" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F399" t="s" s="12">
+      <c r="F399" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G399" t="s" s="12">
+      <c r="G399" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H399" t="s" s="12">
+      <c r="H399" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I399" t="s" s="12">
+      <c r="I399" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11786,10 +11804,10 @@
       <c r="I402">
         <f>((C402-C401)^2+(D402- D401)^2)^.5</f>
       </c>
-      <c r="J402" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K402" s="12" t="s">
+      <c r="J402" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K402" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L402" t="n">
@@ -11833,28 +11851,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="s" s="12">
+      <c r="A404" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B404" t="s" s="12">
+      <c r="B404" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C404" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D404" t="s" s="12">
+      <c r="C404" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D404" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E404" t="s" s="12">
+      <c r="E404" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F404" t="s" s="12">
+      <c r="F404" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G404" t="s" s="12">
+      <c r="G404" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H404" t="s" s="12">
+      <c r="H404" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11879,28 +11897,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="B406" t="s" s="12">
+      <c r="B406" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C406" t="s" s="12">
+      <c r="C406" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D406" t="s" s="12">
+      <c r="D406" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E406" t="s" s="12">
+      <c r="E406" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F406" t="s" s="12">
+      <c r="F406" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G406" t="s" s="12">
+      <c r="G406" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H406" t="s" s="12">
+      <c r="H406" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I406" t="s" s="12">
+      <c r="I406" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12017,10 +12035,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="12" t="s">
+      <c r="J410" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12064,28 +12082,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="12">
+      <c r="A412" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="12">
+      <c r="B412" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="12">
+      <c r="C412" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="12">
+      <c r="E412" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="12">
+      <c r="F412" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="12">
+      <c r="G412" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="12">
+      <c r="H412" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12110,28 +12128,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="12">
+      <c r="B414" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="12">
+      <c r="C414" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="12">
+      <c r="D414" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="12">
+      <c r="E414" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="12">
+      <c r="F414" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="12">
+      <c r="G414" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="12">
+      <c r="H414" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="12">
+      <c r="I414" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12219,10 +12237,10 @@
       <c r="I417">
         <f>((C417-C416)^2+(D417- D416)^2)^.5</f>
       </c>
-      <c r="J417" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K417" s="12" t="s">
+      <c r="J417" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K417" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L417" t="n">
@@ -12266,28 +12284,28 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="s" s="12">
+      <c r="A419" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B419" t="s" s="12">
+      <c r="B419" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C419" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D419" t="s" s="12">
+      <c r="C419" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D419" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E419" t="s" s="12">
+      <c r="E419" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F419" t="s" s="12">
+      <c r="F419" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G419" t="s" s="12">
+      <c r="G419" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H419" t="s" s="12">
+      <c r="H419" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12312,28 +12330,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="B421" t="s" s="12">
+      <c r="B421" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C421" t="s" s="12">
+      <c r="C421" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D421" t="s" s="12">
+      <c r="D421" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E421" t="s" s="12">
+      <c r="E421" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F421" t="s" s="12">
+      <c r="F421" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G421" t="s" s="12">
+      <c r="G421" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H421" t="s" s="12">
+      <c r="H421" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I421" t="s" s="12">
+      <c r="I421" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12392,10 +12410,10 @@
       <c r="I423">
         <f>((C423-C422)^2+(D423- D422)^2)^.5</f>
       </c>
-      <c r="J423" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K423" s="12" t="s">
+      <c r="J423" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K423" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L423" t="n">
@@ -12439,28 +12457,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="s" s="12">
+      <c r="A425" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B425" t="s" s="12">
+      <c r="B425" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C425" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D425" t="s" s="12">
+      <c r="C425" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D425" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E425" t="s" s="12">
+      <c r="E425" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F425" t="s" s="12">
+      <c r="F425" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G425" t="s" s="12">
+      <c r="G425" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H425" t="s" s="12">
+      <c r="H425" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12485,28 +12503,28 @@
       </c>
     </row>
     <row r="427">
-      <c r="B427" t="s" s="12">
+      <c r="B427" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C427" t="s" s="12">
+      <c r="C427" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D427" t="s" s="12">
+      <c r="D427" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E427" t="s" s="12">
+      <c r="E427" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F427" t="s" s="12">
+      <c r="F427" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G427" t="s" s="12">
+      <c r="G427" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H427" t="s" s="12">
+      <c r="H427" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I427" t="s" s="12">
+      <c r="I427" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12565,10 +12583,10 @@
       <c r="I429">
         <f>((C429-C428)^2+(D429- D428)^2)^.5</f>
       </c>
-      <c r="J429" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K429" s="12" t="s">
+      <c r="J429" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K429" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L429" t="n">
@@ -12612,28 +12630,28 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="s" s="12">
+      <c r="A431" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B431" t="s" s="12">
+      <c r="B431" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C431" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D431" t="s" s="12">
+      <c r="C431" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D431" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E431" t="s" s="12">
+      <c r="E431" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F431" t="s" s="12">
+      <c r="F431" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G431" t="s" s="12">
+      <c r="G431" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H431" t="s" s="12">
+      <c r="H431" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12658,28 +12676,28 @@
       </c>
     </row>
     <row r="433">
-      <c r="B433" t="s" s="12">
+      <c r="B433" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C433" t="s" s="12">
+      <c r="C433" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D433" t="s" s="12">
+      <c r="D433" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E433" t="s" s="12">
+      <c r="E433" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F433" t="s" s="12">
+      <c r="F433" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G433" t="s" s="12">
+      <c r="G433" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H433" t="s" s="12">
+      <c r="H433" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I433" t="s" s="12">
+      <c r="I433" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12738,10 +12756,10 @@
       <c r="I435">
         <f>((C435-C434)^2+(D435- D434)^2)^.5</f>
       </c>
-      <c r="J435" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K435" s="12" t="s">
+      <c r="J435" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K435" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L435" t="n">
@@ -12785,28 +12803,28 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="s" s="12">
+      <c r="A437" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B437" t="s" s="12">
+      <c r="B437" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C437" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D437" t="s" s="12">
+      <c r="C437" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D437" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E437" t="s" s="12">
+      <c r="E437" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F437" t="s" s="12">
+      <c r="F437" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G437" t="s" s="12">
+      <c r="G437" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H437" t="s" s="12">
+      <c r="H437" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12831,28 +12849,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="B439" t="s" s="12">
+      <c r="B439" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C439" t="s" s="12">
+      <c r="C439" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D439" t="s" s="12">
+      <c r="D439" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E439" t="s" s="12">
+      <c r="E439" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F439" t="s" s="12">
+      <c r="F439" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G439" t="s" s="12">
+      <c r="G439" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H439" t="s" s="12">
+      <c r="H439" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I439" t="s" s="12">
+      <c r="I439" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12911,10 +12929,10 @@
       <c r="I441">
         <f>((C441-C440)^2+(D441- D440)^2)^.5</f>
       </c>
-      <c r="J441" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K441" s="12" t="s">
+      <c r="J441" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K441" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L441" t="n">
